--- a/legendre_out/CSV/analytically/p2/a0/rates.xlsx
+++ b/legendre_out/CSV/analytically/p2/a0/rates.xlsx
@@ -562,7 +562,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>3.386941282181453e-282</v>
+        <v>3.356368753753493e-282</v>
       </c>
     </row>
     <row r="26">
@@ -570,7 +570,7 @@
         <v>0.08</v>
       </c>
       <c r="B26" t="n">
-        <v>2.957118309064657e-246</v>
+        <v>2.937086882279809e-246</v>
       </c>
     </row>
     <row r="27">
@@ -578,7 +578,7 @@
         <v>0.09</v>
       </c>
       <c r="B27" t="n">
-        <v>2.68128147409763e-218</v>
+        <v>2.668008435416231e-218</v>
       </c>
     </row>
     <row r="28">
@@ -586,7 +586,7 @@
         <v>0.1</v>
       </c>
       <c r="B28" t="n">
-        <v>6.240359373439605e-196</v>
+        <v>6.218475821247893e-196</v>
       </c>
     </row>
     <row r="29">
@@ -594,7 +594,7 @@
         <v>0.11</v>
       </c>
       <c r="B29" t="n">
-        <v>1.244019461806598e-177</v>
+        <v>1.241075452396605e-177</v>
       </c>
     </row>
     <row r="30">
@@ -602,7 +602,7 @@
         <v>0.12</v>
       </c>
       <c r="B30" t="n">
-        <v>2.203922789749722e-162</v>
+        <v>2.200708272070844e-162</v>
       </c>
     </row>
     <row r="31">
@@ -610,7 +610,7 @@
         <v>0.13</v>
       </c>
       <c r="B31" t="n">
-        <v>1.753825600938369e-149</v>
+        <v>1.752551491930646e-149</v>
       </c>
     </row>
     <row r="32">
@@ -618,7 +618,7 @@
         <v>0.14</v>
       </c>
       <c r="B32" t="n">
-        <v>1.995235785286202e-138</v>
+        <v>1.994980392192017e-138</v>
       </c>
     </row>
     <row r="33">
@@ -626,7 +626,7 @@
         <v>0.15</v>
       </c>
       <c r="B33" t="n">
-        <v>7.586552901214603e-129</v>
+        <v>7.589345283622472e-129</v>
       </c>
     </row>
     <row r="34">
@@ -634,7 +634,7 @@
         <v>0.16</v>
       </c>
       <c r="B34" t="n">
-        <v>1.823140368352038e-120</v>
+        <v>1.824570967986151e-120</v>
       </c>
     </row>
     <row r="35">
@@ -642,7 +642,7 @@
         <v>0.18</v>
       </c>
       <c r="B35" t="n">
-        <v>1.675032194395289e-106</v>
+        <v>1.677449667337737e-106</v>
       </c>
     </row>
     <row r="36">
@@ -650,7 +650,7 @@
         <v>0.2</v>
       </c>
       <c r="B36" t="n">
-        <v>2.448962235230722e-95</v>
+        <v>2.453710623474787e-95</v>
       </c>
     </row>
     <row r="37">
@@ -658,7 +658,7 @@
         <v>0.25</v>
       </c>
       <c r="B37" t="n">
-        <v>2.935050636626552e-75</v>
+        <v>2.943172374998244e-75</v>
       </c>
     </row>
     <row r="38">
@@ -666,7 +666,7 @@
         <v>0.3</v>
       </c>
       <c r="B38" t="n">
-        <v>6.822662979676515e-62</v>
+        <v>6.845033540345779e-62</v>
       </c>
     </row>
     <row r="39">
@@ -674,7 +674,7 @@
         <v>0.35</v>
       </c>
       <c r="B39" t="n">
-        <v>2.328148362612283e-52</v>
+        <v>2.336592052500701e-52</v>
       </c>
     </row>
     <row r="40">
@@ -682,7 +682,7 @@
         <v>0.4</v>
       </c>
       <c r="B40" t="n">
-        <v>3.206238656439976e-45</v>
+        <v>3.218671054680716e-45</v>
       </c>
     </row>
     <row r="41">
@@ -690,7 +690,7 @@
         <v>0.45</v>
       </c>
       <c r="B41" t="n">
-        <v>1.122679554920505e-39</v>
+        <v>1.127242490111172e-39</v>
       </c>
     </row>
     <row r="42">
@@ -698,7 +698,7 @@
         <v>0.5</v>
       </c>
       <c r="B42" t="n">
-        <v>3.014712423288272e-35</v>
+        <v>3.02738976240437e-35</v>
       </c>
     </row>
     <row r="43">
@@ -706,7 +706,7 @@
         <v>0.6</v>
       </c>
       <c r="B43" t="n">
-        <v>1.287092089228061e-28</v>
+        <v>1.292740047113399e-28</v>
       </c>
     </row>
     <row r="44">
@@ -714,7 +714,7 @@
         <v>0.7</v>
       </c>
       <c r="B44" t="n">
-        <v>6.822470116666432e-24</v>
+        <v>6.853009054235843e-24</v>
       </c>
     </row>
     <row r="45">
@@ -722,7 +722,7 @@
         <v>0.8</v>
       </c>
       <c r="B45" t="n">
-        <v>2.342285231123172e-20</v>
+        <v>2.35281605355419e-20</v>
       </c>
     </row>
     <row r="46">
@@ -730,7 +730,7 @@
         <v>0.9</v>
       </c>
       <c r="B46" t="n">
-        <v>1.30176241976021e-17</v>
+        <v>1.307572924460374e-17</v>
       </c>
     </row>
     <row r="47">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>2.026977649193881e-15</v>
+        <v>2.03587160619346e-15</v>
       </c>
     </row>
     <row r="48">
@@ -746,7 +746,7 @@
         <v>1.25</v>
       </c>
       <c r="B48" t="n">
-        <v>1.752847719748547e-11</v>
+        <v>1.759883933789446e-11</v>
       </c>
     </row>
     <row r="49">
@@ -754,7 +754,7 @@
         <v>1.5</v>
       </c>
       <c r="B49" t="n">
-        <v>7.259631670716083e-09</v>
+        <v>7.283766322125138e-09</v>
       </c>
     </row>
     <row r="50">
@@ -762,7 +762,7 @@
         <v>1.75</v>
       </c>
       <c r="B50" t="n">
-        <v>5.333495504380895e-07</v>
+        <v>5.345531388318952e-07</v>
       </c>
     </row>
     <row r="51">
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>1.335967868455851e-05</v>
+        <v>1.337062351952287e-05</v>
       </c>
     </row>
     <row r="52">
@@ -778,7 +778,7 @@
         <v>2.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.001219874200416526</v>
+        <v>0.001216434344112181</v>
       </c>
     </row>
     <row r="53">
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0249809429454124</v>
+        <v>0.02481183536579493</v>
       </c>
     </row>
     <row r="54">
@@ -794,7 +794,7 @@
         <v>3.5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2172914121226882</v>
+        <v>0.2150234881359321</v>
       </c>
     </row>
     <row r="55">
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="n">
-        <v>1.102540284743797</v>
+        <v>1.087557409745412</v>
       </c>
     </row>
     <row r="56">
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="n">
-        <v>10.64331443234956</v>
+        <v>10.44801004335255</v>
       </c>
     </row>
     <row r="57">
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>47.47020721996837</v>
+        <v>46.44712141164192</v>
       </c>
     </row>
     <row r="58">
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>2541.943000914377</v>
+        <v>2512.908807940731</v>
       </c>
     </row>
     <row r="59">
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>5469.571660458166</v>
+        <v>5418.468929832939</v>
       </c>
     </row>
     <row r="60">
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="n">
-        <v>9765.281541786075</v>
+        <v>9644.114089548033</v>
       </c>
     </row>
     <row r="61">
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="n">
-        <v>15293.90630423088</v>
+        <v>15097.44821236965</v>
       </c>
     </row>
   </sheetData>
